--- a/PricingModel.xlsx
+++ b/PricingModel.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>Room A</t>
   </si>
@@ -90,16 +90,193 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Exp. Payment</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Difference</t>
+    <t>An algorithm for efficiently pricing sublets</t>
+  </si>
+  <si>
+    <t>Arrays (Python Input)</t>
+  </si>
+  <si>
+    <t>Expected Payment</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Conditional Probability</t>
+  </si>
+  <si>
+    <t>P(Row Label | Column Label)</t>
+  </si>
+  <si>
+    <t>Each entry in the table corresponds to</t>
+  </si>
+  <si>
+    <t>A&amp;B</t>
+  </si>
+  <si>
+    <t>A&amp;C</t>
+  </si>
+  <si>
+    <t>A&amp;D</t>
+  </si>
+  <si>
+    <t>B&amp;C</t>
+  </si>
+  <si>
+    <t>B&amp;D</t>
+  </si>
+  <si>
+    <t>C&amp;D</t>
+  </si>
+  <si>
+    <t>A&amp;B&amp;C</t>
+  </si>
+  <si>
+    <t>A&amp;B&amp;D</t>
+  </si>
+  <si>
+    <t>A&amp;C&amp;D</t>
+  </si>
+  <si>
+    <t>B&amp;C&amp;D</t>
+  </si>
+  <si>
+    <t>A&amp;B&amp;C&amp;D</t>
+  </si>
+  <si>
+    <t>*Note A&amp;B&amp;C&amp;D &lt;= A&amp;B&amp;D &lt;= A&amp;B</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A (non-randomly) generated input with the following condition: if an individual bids on more than one room, the bids must be adjacent (i.e you can bid on A&amp;B, not A&amp;D, unless A&amp;B&amp;C&amp;D). This will likely not hold in practice.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Note:
+This table is meant to give some insight into an individual's sensitivity to price, and how demand is distributed accross product categories. Note the difference in price between Room A and Room D; it's $1,375. If individuals are price sensitive we should expect to see fewer people bidding on Room A and Room D (A&amp;D), than say, Room A and Room B (A&amp;B), where the differential is smaller (only $375). If you look at the 'Counts' table above, you'll notice that A&amp;D &lt; A&amp;B =&gt; Pr(A&amp;D) &lt; Pr(A&amp;B). I admit, I constructed the Demand table to produce this result. But perhaps one day, this model will see real data. 
+What else might we expect? How about individuals with 'high end' tastes. In this case, you might see people are more likely to bid on Room D and Room C, than Room D and Room A. Again, in the table above, you'll notice that A&amp;D &lt; C&amp;D =&gt; Pr(A&amp;D) &lt; Pr(C&amp;D) (yes, I set up this result as well).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>So, what is the probability that an individual will bid on Room D, given that they have already bid on Room A? We check the table above (Row D, Column A), and find a probability of 0.27. That means, there's a 27% chance that an individual who bids on Room A will also bid on Room D. Notice this table is not symmetric. The probability of an individual bidding on Room A, given they have already bid on Room D is higher at 0.38. This implies there's a 38% chance that an individual who bids on Room D will also bid on Room A. What would this mean to an economist? Our groups are more price sensitive (in general) than they are 'luxury' goods buyers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The above tables computes the probability of being assigned a particular room, as well as the overall probability of getting a room. The overall probability for an individual decreases as additional bids are made. </t>
+    </r>
+  </si>
+  <si>
+    <t>roomA</t>
+  </si>
+  <si>
+    <t>roomB</t>
+  </si>
+  <si>
+    <t>roomC</t>
+  </si>
+  <si>
+    <t>roomD</t>
+  </si>
+  <si>
+    <t>A, B, C, D</t>
+  </si>
+  <si>
+    <t>D, C, B, A</t>
+  </si>
+  <si>
+    <t>B, D, A, C</t>
+  </si>
+  <si>
+    <t>C, D, B, A</t>
+  </si>
+  <si>
+    <t>Monte Carlo Simulation (10,000 x)</t>
   </si>
 </sst>
 </file>
@@ -108,9 +285,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,10 +357,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -292,74 +477,365 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -368,60 +844,199 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="253">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -452,6 +1067,102 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -481,6 +1192,102 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -811,211 +1618,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O37"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.1640625" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" customWidth="1"/>
+    <col min="9" max="10" width="7.5" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="18" width="7.5" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9.83203125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="2.5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="2.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="26" width="8" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="2.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="2.5" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="8.33203125" style="5" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="31" width="7.5" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="7.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="2.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="12.6640625" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" style="85" customWidth="1"/>
+    <col min="40" max="40" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="18">
+    <row r="1" spans="1:40" ht="18">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="18">
+      <c r="A2" s="32"/>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="15">
         <v>2000</v>
       </c>
-      <c r="E3" t="str">
-        <f>"[" &amp; IF(ISBLANK(D12),0,$C$12) &amp; IF(ISBLANK(D13), , $C$13) &amp; IF(ISBLANK(D14),,"," &amp; $C$14) &amp; IF(ISBLANK(D15),,"," &amp; $C$15) &amp; IF(ISBLANK(D16),,"," &amp; $C$16) &amp; IF(ISBLANK(D17),,"," &amp; $C$17) &amp; IF(ISBLANK(D18),,"," &amp; $C$18) &amp; IF(ISBLANK(D19),,"," &amp; $C$19) &amp; IF(ISBLANK(D20),,"," &amp; $C$20) &amp; IF(ISBLANK(D21),,"," &amp; $C$21) &amp; IF(ISBLANK(D22),,"," &amp; $C$22) &amp; IF(ISBLANK(D23),,"," &amp; $C$23) &amp; IF(ISBLANK(D24),,"," &amp; $C$24) &amp; IF(ISBLANK(D25),,"," &amp; $C$25) &amp; IF(ISBLANK(D26),,"," &amp; $C$26) &amp; IF(ISBLANK(D27),,"," &amp; $C$27) &amp; "]"</f>
-        <v>[12,3,5,7,9,10,12,14,15,16]</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="18">
+      <c r="F4" t="str">
+        <f>B4 &amp;" = [" &amp; IF(ISBLANK(D12),,$C$12 &amp; ",") &amp; IF(ISBLANK(D13),, $C$13 &amp; ",") &amp; IF(ISBLANK(D14),, $C$14 &amp; ",") &amp; IF(ISBLANK(D15),,$C$15 &amp; ",") &amp; IF(ISBLANK(D16),,$C$16 &amp; ",") &amp; IF(ISBLANK(D17),,$C$17 &amp; ",") &amp; IF(ISBLANK(D18),,$C$18 &amp; ",") &amp; IF(ISBLANK(D19),,$C$19 &amp; ",") &amp; IF(ISBLANK(D20),,$C$20 &amp; ",") &amp; IF(ISBLANK(D21),,$C$21 &amp; ",") &amp; IF(ISBLANK(D22),,$C$22 &amp; ",") &amp; IF(ISBLANK(D23),,$C$23 &amp; ",") &amp; IF(ISBLANK(D24),,$C$24 &amp; ",") &amp; IF(ISBLANK(D25),,$C$25 &amp; ",") &amp; IF(ISBLANK(D26),,$C$26 &amp; ",") &amp; IF(ISBLANK(D27),,$C$27 &amp; ",")&amp; IF(ISBLANK(D28),,$C$28) &amp; "]"</f>
+        <v>roomA = [2,3,7,8,9,10,12,14,15,16,17]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15">
         <v>2375</v>
       </c>
-      <c r="E4" t="str">
-        <f>"[" &amp; IF(ISBLANK(E12),0,$C$12) &amp; IF(ISBLANK(E13), , $C$13) &amp; IF(ISBLANK(E14),,"," &amp; $C$14) &amp; IF(ISBLANK(E15),,"," &amp; $C$15) &amp; IF(ISBLANK(E16),,"," &amp; $C$16) &amp; IF(ISBLANK(E17),,"," &amp; $C$17) &amp; IF(ISBLANK(E18),,"," &amp; $C$18) &amp; IF(ISBLANK(E19),,"," &amp; $C$19) &amp; IF(ISBLANK(E20),,"," &amp; $C$20) &amp; IF(ISBLANK(E21),,"," &amp; $C$21) &amp; IF(ISBLANK(E22),,"," &amp; $C$22) &amp; IF(ISBLANK(E23),,"," &amp; $C$23) &amp; IF(ISBLANK(E24),,"," &amp; $C$24) &amp; IF(ISBLANK(E25),,"," &amp; $C$25) &amp; IF(ISBLANK(E26),,"," &amp; $C$26) &amp; IF(ISBLANK(E27),,"," &amp; $C$27) &amp; "]"</f>
-        <v>[12,3,4,6,7,8,10,11,12,13,14]</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18">
+      <c r="F5" t="str">
+        <f>B5 &amp;" = [" &amp; IF(ISBLANK(E12),,$C$12 &amp; ",") &amp; IF(ISBLANK(E13),, $C$13 &amp; ",") &amp; IF(ISBLANK(E14),, $C$14 &amp; ",") &amp; IF(ISBLANK(E15),,$C$15 &amp; ",") &amp; IF(ISBLANK(E16),,$C$16 &amp; ",") &amp; IF(ISBLANK(E17),,$C$17 &amp; ",") &amp; IF(ISBLANK(E18),,$C$18 &amp; ",") &amp; IF(ISBLANK(E19),,$C$19 &amp; ",") &amp; IF(ISBLANK(E20),,$C$20 &amp; ",") &amp; IF(ISBLANK(E21),,$C$21 &amp; ",") &amp; IF(ISBLANK(E22),,$C$22 &amp; ",") &amp; IF(ISBLANK(E23),,$C$23 &amp; ",") &amp; IF(ISBLANK(E24),,$C$24 &amp; ",") &amp; IF(ISBLANK(E25),,$C$25 &amp; ",") &amp; IF(ISBLANK(E26),,$C$26 &amp; ",") &amp; IF(ISBLANK(E27),,$C$27 &amp; ",")&amp; IF(ISBLANK(E28),,$C$28) &amp; "]"</f>
+        <v>roomB = [2,3,4,5,8,9,10,11,13,14,16,17]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="15">
         <v>2875</v>
       </c>
-      <c r="E5" t="str">
-        <f>"[" &amp; IF(ISBLANK(F12),0,$C$12) &amp; IF(ISBLANK(F13), , $C$13) &amp; IF(ISBLANK(F14),,"," &amp; $C$14) &amp; IF(ISBLANK(F15),,"," &amp; $C$15) &amp; IF(ISBLANK(F16),,"," &amp; $C$16) &amp; IF(ISBLANK(F17),,"," &amp; $C$17) &amp; IF(ISBLANK(F18),,"," &amp; $C$18) &amp; IF(ISBLANK(F19),,"," &amp; $C$19) &amp; IF(ISBLANK(F20),,"," &amp; $C$20) &amp; IF(ISBLANK(F21),,"," &amp; $C$21) &amp; IF(ISBLANK(F22),,"," &amp; $C$22) &amp; IF(ISBLANK(F23),,"," &amp; $C$23) &amp; IF(ISBLANK(F24),,"," &amp; $C$24) &amp; IF(ISBLANK(F25),,"," &amp; $C$25) &amp; IF(ISBLANK(F26),,"," &amp; $C$26) &amp; IF(ISBLANK(F27),,"," &amp; $C$27) &amp; "]"</f>
-        <v>[1,4,5,6,7,9,10,11,13,14,15,16]</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" s="16" customFormat="1">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="19">
+      <c r="F6" t="str">
+        <f>B6 &amp;" = [" &amp; IF(ISBLANK(F12),,$C$12 &amp; ",") &amp; IF(ISBLANK(F13),, $C$13 &amp; ",") &amp; IF(ISBLANK(F14),, $C$14 &amp; ",") &amp; IF(ISBLANK(F15),,$C$15 &amp; ",") &amp; IF(ISBLANK(F16),,$C$16 &amp; ",") &amp; IF(ISBLANK(F17),,$C$17 &amp; ",") &amp; IF(ISBLANK(F18),,$C$18 &amp; ",") &amp; IF(ISBLANK(F19),,$C$19 &amp; ",") &amp; IF(ISBLANK(F20),,$C$20 &amp; ",") &amp; IF(ISBLANK(F21),,$C$21 &amp; ",") &amp; IF(ISBLANK(F22),,$C$22 &amp; ",") &amp; IF(ISBLANK(F23),,$C$23 &amp; ",") &amp; IF(ISBLANK(F24),,$C$24 &amp; ",") &amp; IF(ISBLANK(F25),,$C$25 &amp; ",") &amp; IF(ISBLANK(F26),,$C$26 &amp; ",") &amp; IF(ISBLANK(F27),,$C$27 &amp; ",")&amp; IF(ISBLANK(F28),,$C$28) &amp; "]"</f>
+        <v>roomC = [1,3,4,5,6,7,9,10,11,13,14,17]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="14" customFormat="1">
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="16">
         <v>3375</v>
       </c>
-      <c r="E6" t="str">
-        <f>"[" &amp; IF(ISBLANK(G12),0,$C$12) &amp; IF(ISBLANK(G13), , $C$13) &amp; IF(ISBLANK(G14),,"," &amp; $C$14) &amp; IF(ISBLANK(G15),,"," &amp; $C$15) &amp; IF(ISBLANK(G16),,"," &amp; $C$16) &amp; IF(ISBLANK(G17),,"," &amp; $C$17) &amp; IF(ISBLANK(G18),,"," &amp; $C$18) &amp; IF(ISBLANK(G19),,"," &amp; $C$19) &amp; IF(ISBLANK(G20),,"," &amp; $C$20) &amp; IF(ISBLANK(G21),,"," &amp; $C$21) &amp; IF(ISBLANK(G22),,"," &amp; $C$22) &amp; IF(ISBLANK(G23),,"," &amp; $C$23) &amp; IF(ISBLANK(G24),,"," &amp; $C$24) &amp; IF(ISBLANK(G25),,"," &amp; $C$25) &amp; IF(ISBLANK(G26),,"," &amp; $C$26) &amp; IF(ISBLANK(G27),,"," &amp; $C$27) &amp; "]"</f>
-        <v>[12,5,7,8,10,11,13,14,16]</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="16" customFormat="1">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="20">
-        <f>SUM(D3:D6)/4</f>
-        <v>2656.25</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="2:15" s="16" customFormat="1">
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="F7" t="str">
+        <f>B7 &amp;" = [" &amp; IF(ISBLANK(G12),,$C$12 &amp; ",") &amp; IF(ISBLANK(G13),, $C$13 &amp; ",") &amp; IF(ISBLANK(G14),, $C$14 &amp; ",") &amp; IF(ISBLANK(G15),,$C$15 &amp; ",") &amp; IF(ISBLANK(G16),,$C$16 &amp; ",") &amp; IF(ISBLANK(G17),,$C$17 &amp; ",") &amp; IF(ISBLANK(G18),,$C$18 &amp; ",") &amp; IF(ISBLANK(G19),,$C$19 &amp; ",") &amp; IF(ISBLANK(G20),,$C$20 &amp; ",") &amp; IF(ISBLANK(G21),,$C$21 &amp; ",") &amp; IF(ISBLANK(G22),,$C$22 &amp; ",") &amp; IF(ISBLANK(G23),,$C$23 &amp; ",") &amp; IF(ISBLANK(G24),,$C$24 &amp; ",") &amp; IF(ISBLANK(G25),,$C$25 &amp; ",") &amp; IF(ISBLANK(G26),,$C$26 &amp; ",") &amp; IF(ISBLANK(G27),,$C$27 &amp; ",")&amp; IF(ISBLANK(G28),,$C$28) &amp; "]"</f>
+        <v>roomD = [1,5,6,7,10,11,13,17]</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="AC7" s="33"/>
+    </row>
+    <row r="8" spans="1:40" s="14" customFormat="1">
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="20">
-        <f>-(D7-N29)</f>
-        <v>189.98632284236146</v>
-      </c>
+      <c r="D8" s="17"/>
       <c r="E8"/>
-    </row>
-    <row r="9" spans="2:15" s="16" customFormat="1">
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="AC8" s="33"/>
+    </row>
+    <row r="9" spans="1:40" s="14" customFormat="1">
       <c r="B9"/>
       <c r="C9"/>
-      <c r="H9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="H9" s="24"/>
+      <c r="I9" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="33"/>
+      <c r="AI9" s="24"/>
+      <c r="AN9" s="24"/>
+    </row>
+    <row r="10" spans="1:40">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="27" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="27"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="2:15" ht="30">
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="28"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="25"/>
+    </row>
+    <row r="11" spans="1:40" ht="30">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="9" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="25"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="AF11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="AG11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK11" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM11" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN11" s="25"/>
+    </row>
+    <row r="12" spans="1:40">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="14">
+      <c r="H12" s="25"/>
+      <c r="I12" s="10">
+        <f>IF(OR(ISBLANK($D12), ISBLANK(E12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <f>IF(OR(ISBLANK($D12), ISBLANK(F12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <f>IF(OR(ISBLANK($D12), ISBLANK(G12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <f>IF(OR(ISBLANK($E12), ISBLANK(F12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <f>IF(OR(ISBLANK($E12), ISBLANK(G12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <f>IF(OR(ISBLANK($F12), ISBLANK(G12)), , 1)</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
+        <f>IF(OR(ISBLANK($D12), ISBLANK(E12), ISBLANK(F12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <f>IF(OR(ISBLANK($D12), ISBLANK(E12), ISBLANK(G12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <f>IF(OR(ISBLANK($D12), ISBLANK(F12), ISBLANK(G12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <f>IF(OR(ISBLANK($E12), ISBLANK(F12), ISBLANK(G12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <f>IF(OR(ISBLANK($D12), ISBLANK(E12), ISBLANK(F12), ISBLANK(G12)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="25"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="34">
         <f>IF(ISBLANK(D12),,1/D$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <f>IF(ISBLANK(E12),,1/E$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <f>IF(ISBLANK(F12),,1/F$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J12" s="14">
-        <f t="shared" ref="J12:J28" si="0">IF(ISBLANK(E12),,1/E$29)</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" ref="K12:K28" si="1">IF(ISBLANK(F12),,1/F$29)</f>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L12" s="14">
-        <f t="shared" ref="L12:L28" si="2">IF(ISBLANK(G12),,1/G$29)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M12" s="22">
-        <f>1 - (1-I12)*(1-J12)*(1-K12)*(1-L12)</f>
-        <v>0.2899408284023669</v>
-      </c>
-      <c r="N12" s="24">
-        <f>($D$3*I12+$D$4*J12+$D$5*K12+$D$6*L12)/M12</f>
-        <v>3025.8967223252935</v>
-      </c>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="AF12" s="12">
+        <f>IF(ISBLANK(G12),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG12" s="19">
+        <f>1 - (1-AC12)*(1-AD12)*(1-AE12)*(1-AF12)</f>
+        <v>0.19791666666666674</v>
+      </c>
+      <c r="AH12" s="21">
+        <f>($D$4*AC12+$D$5*AD12+$D$6*AE12+$D$7*AF12)/AG12</f>
+        <v>3342.1052631578932</v>
+      </c>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="82">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="AK12" s="82">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AL12" s="82">
+        <v>0.2087</v>
+      </c>
+      <c r="AM12" s="86">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="AN12" s="25"/>
+    </row>
+    <row r="13" spans="1:40">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1030,42 +2026,108 @@
         <v>20</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="14">
-        <f t="shared" ref="I13:I28" si="3">IF(ISBLANK(D13),,1/D$29)</f>
+      <c r="G13" s="6"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="10">
+        <f t="shared" ref="I13:I28" si="0">IF(OR(ISBLANK($D13), ISBLANK(E13)), , 1)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" ref="J13:J28" si="1">IF(OR(ISBLANK($D13), ISBLANK(F13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" ref="K13:K28" si="2">IF(OR(ISBLANK($D13), ISBLANK(G13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" ref="L13:L28" si="3">IF(OR(ISBLANK($E13), ISBLANK(F13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" ref="M13:M28" si="4">IF(OR(ISBLANK($E13), ISBLANK(G13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" ref="N13:N28" si="5">IF(OR(ISBLANK($F13), ISBLANK(G13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" ref="O13:O28" si="6">IF(OR(ISBLANK($D13), ISBLANK(E13), ISBLANK(F13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" ref="P13:P28" si="7">IF(OR(ISBLANK($D13), ISBLANK(E13), ISBLANK(G13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" ref="Q13:Q28" si="8">IF(OR(ISBLANK($D13), ISBLANK(F13), ISBLANK(G13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" ref="R13:R28" si="9">IF(OR(ISBLANK($E13), ISBLANK(F13), ISBLANK(G13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" ref="S13:S28" si="10">IF(OR(ISBLANK($D13), ISBLANK(E13), ISBLANK(F13), ISBLANK(G13)), , 1)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="34">
+        <f>IF(ISBLANK(D13),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD13" s="12">
+        <f>IF(ISBLANK(E13),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J13" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" ref="M13:M28" si="4">1 - (1-I13)*(1-J13)*(1-K13)*(1-L13)</f>
-        <v>0.23076923076923084</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" ref="N13:N28" si="5">($D$3*I13+$D$4*J13+$D$5*K13+$D$6*L13)/M13</f>
-        <v>2843.4343434343423</v>
-      </c>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="AE13" s="12">
+        <f>IF(ISBLANK(F13),,1/F$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <f>IF(ISBLANK(G13),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="19">
+        <f t="shared" ref="AG13:AG28" si="11">1 - (1-AC13)*(1-AD13)*(1-AE13)*(1-AF13)</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="AH13" s="21">
+        <f>($D$4*AC13+$D$5*AD13+$D$6*AE13+$D$7*AF13)/AG13</f>
+        <v>2278.4090909090901</v>
+      </c>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="82">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="AK13" s="82">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="AL13" s="82">
+        <v>0.1953</v>
+      </c>
+      <c r="AM13" s="86">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="AN13" s="25"/>
+    </row>
+    <row r="14" spans="1:40">
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C28" si="6">C13+1</f>
+        <f t="shared" ref="C14:C28" si="12">C13+1</f>
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1074,41 +2136,109 @@
       <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="14">
+      <c r="H14" s="25"/>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="25"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="34">
+        <f>IF(ISBLANK(D14),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD14" s="12">
+        <f>IF(ISBLANK(E14),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J14" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" si="4"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="5"/>
-        <v>2270.833333333333</v>
-      </c>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="AE14" s="12">
+        <f>IF(ISBLANK(F14),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF14" s="12">
+        <f>IF(ISBLANK(G14),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="19">
+        <f t="shared" si="11"/>
+        <v>0.23611111111111116</v>
+      </c>
+      <c r="AH14" s="21">
+        <f>($D$4*AC14+$D$5*AD14+$D$6*AE14+$D$7*AF14)/AG14</f>
+        <v>2622.9946524064162</v>
+      </c>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="82">
+        <v>0.2414</v>
+      </c>
+      <c r="AK14" s="82">
+        <v>0.26240000000000002</v>
+      </c>
+      <c r="AL14" s="82">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="AM14" s="86">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="AN14" s="25"/>
+    </row>
+    <row r="15" spans="1:40">
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D15" s="10"/>
@@ -1119,260 +2249,716 @@
         <v>20</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="14">
+      <c r="H15" s="25"/>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
         <f t="shared" si="4"/>
-        <v>0.1479289940828401</v>
-      </c>
-      <c r="N15" s="24">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="5"/>
-        <v>2730.0000000000027</v>
-      </c>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="2:15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="25"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="34">
+        <f>IF(ISBLANK(D15),,1/D$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="12">
+        <f>IF(ISBLANK(E15),,1/E$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE15" s="12">
+        <f>IF(ISBLANK(F15),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF15" s="12">
+        <f>IF(ISBLANK(G15),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="19">
+        <f t="shared" si="11"/>
+        <v>0.15972222222222232</v>
+      </c>
+      <c r="AH15" s="21">
+        <f>($D$4*AC15+$D$5*AD15+$D$6*AE15+$D$7*AF15)/AG15</f>
+        <v>2739.1304347826072</v>
+      </c>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="82">
+        <v>0.1714</v>
+      </c>
+      <c r="AK15" s="82">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="AL15" s="82">
+        <v>0.1724</v>
+      </c>
+      <c r="AM15" s="86">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="AN15" s="25"/>
+    </row>
+    <row r="16" spans="1:40">
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="14">
+      <c r="H16" s="25"/>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="43">
+        <v>1</v>
+      </c>
+      <c r="X16" s="37">
+        <f>I29/E29</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y16" s="37">
+        <f>J29/F29</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z16" s="37">
+        <f>K29/G29</f>
+        <v>0.375</v>
+      </c>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="34">
+        <f>IF(ISBLANK(D16),,1/D$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <f>IF(ISBLANK(E16),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M16" s="22">
-        <f t="shared" si="4"/>
-        <v>0.23076923076923084</v>
-      </c>
-      <c r="N16" s="24">
-        <f t="shared" si="5"/>
-        <v>3010.1010101010093</v>
-      </c>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="AE16" s="12">
+        <f>IF(ISBLANK(F16),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF16" s="12">
+        <f>IF(ISBLANK(G16),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG16" s="19">
+        <f t="shared" si="11"/>
+        <v>0.26475694444444453</v>
+      </c>
+      <c r="AH16" s="21">
+        <f>($D$4*AC16+$D$5*AD16+$D$6*AE16+$D$7*AF16)/AG16</f>
+        <v>3245.9016393442612</v>
+      </c>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="82">
+        <v>0.2984</v>
+      </c>
+      <c r="AK16" s="82">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="AL16" s="82">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AM16" s="86">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="AN16" s="25"/>
+    </row>
+    <row r="17" spans="2:40">
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="14">
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L17" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="22">
+      <c r="M17" s="10">
         <f t="shared" si="4"/>
-        <v>0.1479289940828401</v>
-      </c>
-      <c r="N17" s="24">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="5"/>
-        <v>2730.0000000000027</v>
-      </c>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="2:15">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="25"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="39">
+        <f>I29/D29</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="X17" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="37">
+        <f>L29/F29</f>
+        <v>0.75</v>
+      </c>
+      <c r="Z17" s="37">
+        <f>M29/G29</f>
+        <v>0.625</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="34">
+        <f>IF(ISBLANK(D17),,1/D$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="12">
+        <f>IF(ISBLANK(E17),,1/E$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="12">
+        <f>IF(ISBLANK(F17),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF17" s="12">
+        <f>IF(ISBLANK(G17),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG17" s="19">
+        <f t="shared" si="11"/>
+        <v>0.19791666666666674</v>
+      </c>
+      <c r="AH17" s="21">
+        <f>($D$4*AC17+$D$5*AD17+$D$6*AE17+$D$7*AF17)/AG17</f>
+        <v>3342.1052631578932</v>
+      </c>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="82">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="AK17" s="82">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="AL17" s="82">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="AM17" s="86">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="AN17" s="25"/>
+    </row>
+    <row r="18" spans="2:40">
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="14">
+      <c r="H18" s="25"/>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="10">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="39">
+        <f>J29/D29</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="X18" s="37">
+        <f>L29/E29</f>
+        <v>0.75</v>
+      </c>
+      <c r="Y18" s="44">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="37">
+        <f>N29/G29</f>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="34">
+        <f>IF(ISBLANK(D18),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD18" s="12">
+        <f>IF(ISBLANK(E18),,1/E$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="12">
+        <f>IF(ISBLANK(F18),,1/F$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J18" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M18" s="22">
-        <f t="shared" si="4"/>
-        <v>0.2899408284023669</v>
-      </c>
-      <c r="N18" s="24">
-        <f t="shared" si="5"/>
-        <v>3025.8967223252935</v>
-      </c>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="AF18" s="12">
+        <f>IF(ISBLANK(G18),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG18" s="19">
+        <f t="shared" si="11"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="AH18" s="21">
+        <f>($D$4*AC18+$D$5*AD18+$D$6*AE18+$D$7*AF18)/AG18</f>
+        <v>3113.6363636363631</v>
+      </c>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="82">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="AK18" s="82">
+        <v>0.28939999999999999</v>
+      </c>
+      <c r="AL18" s="82">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="AM18" s="86">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="AN18" s="25"/>
+    </row>
+    <row r="19" spans="2:40">
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="14">
+      <c r="G19" s="6"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
-        <f t="shared" si="2"/>
+      <c r="M19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="39">
+        <f>K29/D29</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="X19" s="37">
+        <f>M29/E29</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Y19" s="37">
+        <f>N29/F29</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z19" s="44">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="34">
+        <f>IF(ISBLANK(D19),,1/D$29)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="M19" s="22">
-        <f t="shared" si="4"/>
-        <v>0.16083916083916083</v>
-      </c>
-      <c r="N19" s="24">
-        <f t="shared" si="5"/>
-        <v>3043.478260869565</v>
-      </c>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="AD19" s="12">
+        <f>IF(ISBLANK(E19),,1/E$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE19" s="12">
+        <f>IF(ISBLANK(F19),,1/F$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12">
+        <f>IF(ISBLANK(G19),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="19">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="AH19" s="21">
+        <f>($D$4*AC19+$D$5*AD19+$D$6*AE19+$D$7*AF19)/AG19</f>
+        <v>2278.4090909090901</v>
+      </c>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="82">
+        <v>0.1734</v>
+      </c>
+      <c r="AK19" s="82">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="AL19" s="82">
+        <v>0.1933</v>
+      </c>
+      <c r="AM19" s="86">
+        <v>0.1807</v>
+      </c>
+      <c r="AN19" s="25"/>
+    </row>
+    <row r="20" spans="2:40">
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="14">
+      <c r="H20" s="25"/>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="34">
+        <f>IF(ISBLANK(D20),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD20" s="12">
+        <f>IF(ISBLANK(E20),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L20" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <f t="shared" si="4"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="N20" s="24">
-        <f t="shared" si="5"/>
-        <v>2520.833333333333</v>
-      </c>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="AE20" s="12">
+        <f>IF(ISBLANK(F20),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF20" s="12">
+        <f>IF(ISBLANK(G20),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="19">
+        <f t="shared" si="11"/>
+        <v>0.23611111111111116</v>
+      </c>
+      <c r="AH20" s="21">
+        <f>($D$4*AC20+$D$5*AD20+$D$6*AE20+$D$7*AF20)/AG20</f>
+        <v>2622.9946524064162</v>
+      </c>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="82">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="AK20" s="82">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="AL20" s="82">
+        <v>0.2601</v>
+      </c>
+      <c r="AM20" s="86">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="AN20" s="25"/>
+    </row>
+    <row r="21" spans="2:40">
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1387,39 +2973,105 @@
       <c r="G21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="14">
+      <c r="H21" s="25"/>
+      <c r="I21" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="10">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T21" s="25"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="34">
+        <f>IF(ISBLANK(D21),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD21" s="12">
+        <f>IF(ISBLANK(E21),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J21" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L21" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M21" s="22">
-        <f t="shared" si="4"/>
-        <v>0.2899408284023669</v>
-      </c>
-      <c r="N21" s="24">
-        <f t="shared" si="5"/>
-        <v>3025.8967223252935</v>
-      </c>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="AE21" s="12">
+        <f>IF(ISBLANK(F21),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF21" s="12">
+        <f>IF(ISBLANK(G21),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG21" s="19">
+        <f t="shared" si="11"/>
+        <v>0.33159722222222232</v>
+      </c>
+      <c r="AH21" s="21">
+        <f>($D$4*AC21+$D$5*AD21+$D$6*AE21+$D$7*AF21)/AG21</f>
+        <v>3139.9333650642538</v>
+      </c>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="82">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AK21" s="82">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="AL21" s="82">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="AM21" s="86">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="AN21" s="25"/>
+    </row>
+    <row r="22" spans="2:40">
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="D22" s="10"/>
@@ -1432,82 +3084,212 @@
       <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="14">
+      <c r="H22" s="25"/>
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L22" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M22" s="22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="10">
         <f t="shared" si="4"/>
-        <v>0.22538999462076381</v>
-      </c>
-      <c r="N22" s="24">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="5"/>
-        <v>3153.0429594272082</v>
-      </c>
-      <c r="O22" s="31"/>
-    </row>
-    <row r="23" spans="2:15">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="34">
+        <f>IF(ISBLANK(D22),,1/D$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="12">
+        <f>IF(ISBLANK(E22),,1/E$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE22" s="12">
+        <f>IF(ISBLANK(F22),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF22" s="12">
+        <f>IF(ISBLANK(G22),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG22" s="19">
+        <f t="shared" si="11"/>
+        <v>0.26475694444444453</v>
+      </c>
+      <c r="AH22" s="21">
+        <f>($D$4*AC22+$D$5*AD22+$D$6*AE22+$D$7*AF22)/AG22</f>
+        <v>3245.9016393442612</v>
+      </c>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="82">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="AK22" s="82">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="AL22" s="82">
+        <v>0.28889999999999999</v>
+      </c>
+      <c r="AM22" s="86">
+        <v>0.29010000000000002</v>
+      </c>
+      <c r="AN22" s="25"/>
+    </row>
+    <row r="23" spans="2:40">
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="14">
+      <c r="H23" s="25"/>
+      <c r="I23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
         <f t="shared" si="4"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="N23" s="24">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="5"/>
-        <v>2270.833333333333</v>
-      </c>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" spans="2:15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="34">
+        <f>IF(ISBLANK(D23),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD23" s="12">
+        <f>IF(ISBLANK(E23),,1/E$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="12">
+        <f>IF(ISBLANK(F23),,1/F$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="12">
+        <f>IF(ISBLANK(G23),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="19">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="AH23" s="21">
+        <f>($D$4*AC23+$D$5*AD23+$D$6*AE23+$D$7*AF23)/AG23</f>
+        <v>1999.9999999999993</v>
+      </c>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="82">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="AK23" s="82">
+        <v>0.1137</v>
+      </c>
+      <c r="AL23" s="82">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="AM23" s="86">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="AN23" s="25"/>
+    </row>
+    <row r="24" spans="2:40">
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="D24" s="10"/>
@@ -1520,39 +3302,105 @@
       <c r="G24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="14">
+      <c r="H24" s="25"/>
+      <c r="I24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L24" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M24" s="22">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10">
         <f t="shared" si="4"/>
-        <v>0.22538999462076381</v>
-      </c>
-      <c r="N24" s="24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="5"/>
-        <v>3153.0429594272082</v>
-      </c>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25" spans="2:15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="34">
+        <f>IF(ISBLANK(D24),,1/D$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12">
+        <f>IF(ISBLANK(E24),,1/E$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE24" s="12">
+        <f>IF(ISBLANK(F24),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF24" s="12">
+        <f>IF(ISBLANK(G24),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG24" s="19">
+        <f t="shared" si="11"/>
+        <v>0.26475694444444453</v>
+      </c>
+      <c r="AH24" s="21">
+        <f>($D$4*AC24+$D$5*AD24+$D$6*AE24+$D$7*AF24)/AG24</f>
+        <v>3245.9016393442612</v>
+      </c>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="82">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="AK24" s="82">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="AL24" s="82">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AM24" s="86">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="AN24" s="25"/>
+    </row>
+    <row r="25" spans="2:40">
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1564,130 +3412,322 @@
       <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="14">
+      <c r="G25" s="6"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="34">
+        <f>IF(ISBLANK(D25),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD25" s="12">
+        <f>IF(ISBLANK(E25),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J25" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L25" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M25" s="22">
-        <f t="shared" si="4"/>
-        <v>0.2899408284023669</v>
-      </c>
-      <c r="N25" s="24">
-        <f t="shared" si="5"/>
-        <v>3025.8967223252935</v>
-      </c>
-      <c r="O25" s="31"/>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="AE25" s="12">
+        <f>IF(ISBLANK(F25),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF25" s="12">
+        <f>IF(ISBLANK(G25),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="19">
+        <f t="shared" si="11"/>
+        <v>0.23611111111111116</v>
+      </c>
+      <c r="AH25" s="21">
+        <f>($D$4*AC25+$D$5*AD25+$D$6*AE25+$D$7*AF25)/AG25</f>
+        <v>2622.9946524064162</v>
+      </c>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="82">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="AK25" s="82">
+        <v>0.2646</v>
+      </c>
+      <c r="AL25" s="82">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="AM25" s="86">
+        <v>0.2576</v>
+      </c>
+      <c r="AN25" s="25"/>
+    </row>
+    <row r="26" spans="2:40">
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="14">
+      <c r="H26" s="25"/>
+      <c r="I26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="10">
         <f t="shared" si="3"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="22">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
         <f t="shared" si="4"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="N26" s="24">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="5"/>
-        <v>2520.833333333333</v>
-      </c>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27" spans="2:15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="25"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="34">
+        <f>IF(ISBLANK(D26),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD26" s="12">
+        <f>IF(ISBLANK(E26),,1/E$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="12">
+        <f>IF(ISBLANK(F26),,1/F$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="12">
+        <f>IF(ISBLANK(G26),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="19">
+        <f t="shared" si="11"/>
+        <v>9.0909090909090939E-2</v>
+      </c>
+      <c r="AH26" s="21">
+        <f>($D$4*AC26+$D$5*AD26+$D$6*AE26+$D$7*AF26)/AG26</f>
+        <v>1999.9999999999993</v>
+      </c>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="82">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AK26" s="82">
+        <v>0.1056</v>
+      </c>
+      <c r="AL26" s="82">
+        <v>0.1048</v>
+      </c>
+      <c r="AM26" s="86">
+        <v>0.1062</v>
+      </c>
+      <c r="AN26" s="25"/>
+    </row>
+    <row r="27" spans="2:40">
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="14">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="25"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="34">
+        <f>IF(ISBLANK(D27),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD27" s="12">
+        <f>IF(ISBLANK(E27),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M27" s="22">
-        <f t="shared" si="4"/>
-        <v>0.23076923076923084</v>
-      </c>
-      <c r="N27" s="24">
-        <f t="shared" si="5"/>
-        <v>3010.1010101010093</v>
-      </c>
-      <c r="O27" s="31"/>
-    </row>
-    <row r="28" spans="2:15" ht="16" thickBot="1">
+      <c r="AE27" s="12">
+        <f>IF(ISBLANK(F27),,1/F$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="12">
+        <f>IF(ISBLANK(G27),,1/G$29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="19">
+        <f t="shared" si="11"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="AH27" s="21">
+        <f>($D$4*AC27+$D$5*AD27+$D$6*AE27+$D$7*AF27)/AG27</f>
+        <v>2278.4090909090901</v>
+      </c>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="82">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AK27" s="82">
+        <v>0.1951</v>
+      </c>
+      <c r="AL27" s="82">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="AM27" s="86">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="AN27" s="25"/>
+    </row>
+    <row r="28" spans="2:40" ht="16" thickBot="1">
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -1702,34 +3742,100 @@
       <c r="G28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="14">
+      <c r="H28" s="25"/>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="34">
+        <f>IF(ISBLANK(D28),,1/D$29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AD28" s="12">
+        <f>IF(ISBLANK(E28),,1/E$29)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J28" s="14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M28" s="22">
-        <f t="shared" si="4"/>
-        <v>0.2899408284023669</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" si="5"/>
-        <v>3025.8967223252935</v>
-      </c>
-      <c r="O28" s="31"/>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="AE28" s="12">
+        <f>IF(ISBLANK(F28),,1/F$29)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF28" s="12">
+        <f>IF(ISBLANK(G28),,1/G$29)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AG28" s="19">
+        <f t="shared" si="11"/>
+        <v>0.33159722222222232</v>
+      </c>
+      <c r="AH28" s="21">
+        <f>($D$4*AC28+$D$5*AD28+$D$6*AE28+$D$7*AF28)/AG28</f>
+        <v>3139.9333650642538</v>
+      </c>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="82">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="AK28" s="82">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="AL28" s="82">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="AM28" s="86">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="AN28" s="25"/>
+    </row>
+    <row r="29" spans="2:40">
       <c r="B29" s="7">
         <f>COUNTA(B12:B28)</f>
         <v>17</v>
@@ -1737,85 +3843,989 @@
       <c r="C29" s="7"/>
       <c r="D29" s="11">
         <f>COUNTA(D12:D28)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="7">
         <f>COUNTA(E12:E28)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7">
         <f>COUNTA(F12:F28)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7">
         <f>COUNTA(G12:G28)</f>
-        <v>11</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="15">
+        <v>8</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="11">
         <f>SUM(I12:I28)</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="15">
+        <v>8</v>
+      </c>
+      <c r="J29" s="11">
         <f>SUM(J12:J28)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="K29" s="15">
+        <v>6</v>
+      </c>
+      <c r="K29" s="11">
         <f>SUM(K12:K28)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="L29" s="15">
+        <v>3</v>
+      </c>
+      <c r="L29" s="11">
         <f>SUM(L12:L28)</f>
+        <v>9</v>
+      </c>
+      <c r="M29" s="11">
+        <f>SUM(M12:M28)</f>
+        <v>5</v>
+      </c>
+      <c r="N29" s="11">
+        <f>SUM(N12:N28)</f>
+        <v>8</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" ref="O29:S29" si="13">SUM(O12:O28)</f>
+        <v>5</v>
+      </c>
+      <c r="P29" s="11">
+        <f>SUM(P12:P28)</f>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="11">
+        <f>SUM(Q12:Q28)</f>
+        <v>3</v>
+      </c>
+      <c r="R29" s="11">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="S29" s="11">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="35">
+        <f>SUM(AC12:AC28)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="M29" s="23">
-        <f>SUM(M12:M28)/17</f>
-        <v>0.21558079929120649</v>
-      </c>
-      <c r="N29" s="25">
-        <f>SUM(N12:N28)/17</f>
-        <v>2846.2363228423615</v>
-      </c>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" spans="2:15" s="5" customFormat="1">
+      <c r="AD29" s="13">
+        <f>SUM(AD12:AD28)</f>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="13">
+        <f>SUM(AE12:AE28)</f>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="13">
+        <f>SUM(AF12:AF28)</f>
+        <v>1</v>
+      </c>
+      <c r="AG29" s="20">
+        <f>SUM(AG12:AG28)/17</f>
+        <v>0.21611798128342249</v>
+      </c>
+      <c r="AH29" s="22">
+        <f>SUM(AH12:AH28)/17</f>
+        <v>2779.9270707554447</v>
+      </c>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="83">
+        <f>SUM(AJ12:AJ28)/COUNTA($B$4:$B$7)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AK29" s="83">
+        <f>SUM(AK12:AK28)/COUNTA($B$4:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="AL29" s="83">
+        <f>SUM(AL12:AL28)/COUNTA($B$4:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="AM29" s="87">
+        <f>SUM(AM12:AM28)/COUNTA($B$4:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="AN29" s="25"/>
+    </row>
+    <row r="30" spans="2:40" s="5" customFormat="1">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="32"/>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="H31" s="31"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="31"/>
-    </row>
-    <row r="34" spans="2:3" ht="16">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="2:3" ht="16">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="2:3" ht="16">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="2:3" ht="16">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="D30" s="50">
+        <f>D29/$B$29</f>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="E30" s="50">
+        <f>E29/$B$29</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="F30" s="50">
+        <f>F29/$B$29</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="G30" s="50">
+        <f>G29/$B$29</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="50">
+        <f>I29/$B$29</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="J30" s="50">
+        <f>J29/$B$29</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="K30" s="50">
+        <f>K29/$B$29</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="L30" s="50">
+        <f>L29/$B$29</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="M30" s="50">
+        <f>M29/$B$29</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="N30" s="50">
+        <f>N29/$B$29</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="O30" s="50">
+        <f>O29/$B$29</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="P30" s="50">
+        <f>P29/$B$29</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="Q30" s="50">
+        <f>Q29/$B$29</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="R30" s="50">
+        <f>R29/$B$29</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="S30" s="50">
+        <f>S29/$B$29</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="T30" s="26"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AM30" s="85"/>
+      <c r="AN30" s="26"/>
+    </row>
+    <row r="31" spans="2:40">
+      <c r="AC31"/>
+    </row>
+    <row r="32" spans="2:40">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:35">
+      <c r="B33" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+      <c r="I33" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="63"/>
+      <c r="U33" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="75"/>
+      <c r="AC33" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="72"/>
+    </row>
+    <row r="34" spans="2:35">
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="66"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="77"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="77"/>
+      <c r="AI34" s="72"/>
+    </row>
+    <row r="35" spans="2:35">
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="66"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="77"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="77"/>
+      <c r="AI35" s="72"/>
+    </row>
+    <row r="36" spans="2:35">
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="66"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="77"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71"/>
+      <c r="AH36" s="77"/>
+      <c r="AI36" s="72"/>
+    </row>
+    <row r="37" spans="2:35">
+      <c r="B37" s="58"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="66"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="77"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="71"/>
+      <c r="AG37" s="71"/>
+      <c r="AH37" s="77"/>
+      <c r="AI37" s="72"/>
+    </row>
+    <row r="38" spans="2:35">
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="66"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="77"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="71"/>
+      <c r="AH38" s="77"/>
+      <c r="AI38" s="72"/>
+    </row>
+    <row r="39" spans="2:35">
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="66"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="77"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="71"/>
+      <c r="AH39" s="77"/>
+      <c r="AI39" s="72"/>
+    </row>
+    <row r="40" spans="2:35">
+      <c r="B40" s="58"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="66"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="71"/>
+      <c r="X40" s="71"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="77"/>
+      <c r="AC40" s="76"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="77"/>
+      <c r="AI40" s="72"/>
+    </row>
+    <row r="41" spans="2:35">
+      <c r="B41" s="58"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="66"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="71"/>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="77"/>
+      <c r="AC41" s="76"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
+      <c r="AF41" s="71"/>
+      <c r="AG41" s="71"/>
+      <c r="AH41" s="77"/>
+      <c r="AI41" s="72"/>
+    </row>
+    <row r="42" spans="2:35">
+      <c r="B42" s="58"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="66"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="77"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="71"/>
+      <c r="AH42" s="77"/>
+      <c r="AI42" s="72"/>
+    </row>
+    <row r="43" spans="2:35">
+      <c r="B43" s="58"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="66"/>
+      <c r="U43" s="76"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="77"/>
+      <c r="AC43" s="76"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="71"/>
+      <c r="AH43" s="77"/>
+      <c r="AI43" s="72"/>
+    </row>
+    <row r="44" spans="2:35">
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="66"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="77"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="72"/>
+    </row>
+    <row r="45" spans="2:35">
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="66"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="77"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="71"/>
+      <c r="AH45" s="77"/>
+      <c r="AI45" s="72"/>
+    </row>
+    <row r="46" spans="2:35">
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="66"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="77"/>
+      <c r="AC46" s="76"/>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="71"/>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="71"/>
+      <c r="AH46" s="77"/>
+      <c r="AI46" s="72"/>
+    </row>
+    <row r="47" spans="2:35">
+      <c r="B47" s="61"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="62"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="69"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="71"/>
+      <c r="AA47" s="77"/>
+      <c r="AC47" s="76"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="71"/>
+      <c r="AH47" s="77"/>
+      <c r="AI47" s="72"/>
+    </row>
+    <row r="48" spans="2:35">
+      <c r="U48" s="76"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
+      <c r="AA48" s="77"/>
+      <c r="AC48" s="76"/>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="71"/>
+      <c r="AH48" s="77"/>
+      <c r="AI48" s="72"/>
+    </row>
+    <row r="49" spans="9:35">
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="77"/>
+      <c r="AC49" s="76"/>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="77"/>
+      <c r="AI49" s="72"/>
+    </row>
+    <row r="50" spans="9:35">
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="77"/>
+      <c r="AC50" s="76"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="77"/>
+      <c r="AI50" s="72"/>
+    </row>
+    <row r="51" spans="9:35">
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
+      <c r="U51" s="78"/>
+      <c r="V51" s="79"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="79"/>
+      <c r="Y51" s="79"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="80"/>
+      <c r="AC51" s="78"/>
+      <c r="AD51" s="79"/>
+      <c r="AE51" s="79"/>
+      <c r="AF51" s="79"/>
+      <c r="AG51" s="79"/>
+      <c r="AH51" s="80"/>
+      <c r="AI51" s="72"/>
+    </row>
+    <row r="52" spans="9:35">
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
+    </row>
+    <row r="53" spans="9:35">
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="53"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
+    </row>
+    <row r="54" spans="9:35">
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+    </row>
+    <row r="55" spans="9:35">
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+    </row>
+    <row r="56" spans="9:35">
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+    </row>
+    <row r="57" spans="9:35">
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+    </row>
+    <row r="58" spans="9:35">
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+    </row>
+    <row r="59" spans="9:35">
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+    </row>
+    <row r="60" spans="9:35">
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+    </row>
+    <row r="61" spans="9:35">
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+    </row>
+    <row r="62" spans="9:35">
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+    </row>
+    <row r="63" spans="9:35">
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
     </row>
   </sheetData>
   <sortState ref="B3:B20">
     <sortCondition ref="B3:B20"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="I10:S10"/>
+    <mergeCell ref="I33:S47"/>
+    <mergeCell ref="U33:AA51"/>
     <mergeCell ref="D10:G10"/>
-    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="AC10:AH10"/>
+    <mergeCell ref="B33:G47"/>
+    <mergeCell ref="AC33:AH51"/>
+    <mergeCell ref="AJ10:AM10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/PricingModel.xlsx
+++ b/PricingModel.xlsx
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN63"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="O3" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -3936,22 +3936,10 @@
         <v>2779.9270707554447</v>
       </c>
       <c r="AI29" s="25"/>
-      <c r="AJ29" s="83">
-        <f>SUM(AJ12:AJ28)/COUNTA($B$4:$B$7)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AK29" s="83">
-        <f>SUM(AK12:AK28)/COUNTA($B$4:$B$7)</f>
-        <v>1</v>
-      </c>
-      <c r="AL29" s="83">
-        <f>SUM(AL12:AL28)/COUNTA($B$4:$B$7)</f>
-        <v>1</v>
-      </c>
-      <c r="AM29" s="87">
-        <f>SUM(AM12:AM28)/COUNTA($B$4:$B$7)</f>
-        <v>1</v>
-      </c>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="87"/>
       <c r="AN29" s="25"/>
     </row>
     <row r="30" spans="2:40" s="5" customFormat="1">
